--- a/docs/红包系统/红包系统开发规模估算20190416.xlsx
+++ b/docs/红包系统/红包系统开发规模估算20190416.xlsx
@@ -1541,9 +1541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
